--- a/Semana 1/Requisitos.xlsx
+++ b/Semana 1/Requisitos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiked\Documents\DAS\Semana 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A1A8E59-3CD5-4CB8-93F4-E7A8436C41EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4895CD-02E3-437F-88BE-A3C36F5A0489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="2985" windowWidth="15375" windowHeight="7875" xr2:uid="{A32D6C42-F192-421A-935C-E33AD48D75B6}"/>
+    <workbookView xWindow="-28920" yWindow="2715" windowWidth="29040" windowHeight="15840" xr2:uid="{A32D6C42-F192-421A-935C-E33AD48D75B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Referencia</t>
   </si>
@@ -57,21 +57,12 @@
     <t>RF4</t>
   </si>
   <si>
-    <t>RF19</t>
-  </si>
-  <si>
-    <t>RF20</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Presentación de datos a usuario</t>
   </si>
   <si>
     <t>Responsive para todo tipo de resoluciones</t>
   </si>
   <si>
-    <t xml:space="preserve">GUI, </t>
-  </si>
-  <si>
     <t>RF1.1</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>RF2.3</t>
   </si>
   <si>
-    <t>Sitema de mensajería para comunicación con clientes</t>
-  </si>
-  <si>
     <t>RF2.4</t>
   </si>
   <si>
@@ -138,29 +126,146 @@
     <t>RF3.2</t>
   </si>
   <si>
-    <t>Acceso a información de datos de clientes, en caso de ser usuario administrador</t>
-  </si>
-  <si>
     <t>RF3.3</t>
   </si>
   <si>
-    <t>Sitema de análisis de datos y métricas para la empresa</t>
-  </si>
-  <si>
-    <t>RF3.4</t>
-  </si>
-  <si>
     <t>Carga de datos en las interfaces tras el acceso a los mismos</t>
   </si>
   <si>
     <t>Middleware independiente para correcta funcionalidad de sistema de mensajería</t>
+  </si>
+  <si>
+    <t>Sistema de análisis de datos y métricas para la empresa</t>
+  </si>
+  <si>
+    <t>Sistema de mensajería para comunicación con clientes</t>
+  </si>
+  <si>
+    <t>RF5</t>
+  </si>
+  <si>
+    <t>Implementación de microservicios</t>
+  </si>
+  <si>
+    <t>RF 5.1</t>
+  </si>
+  <si>
+    <t>RF 5.2</t>
+  </si>
+  <si>
+    <t>Implementación de protocolo REST y AMQP</t>
+  </si>
+  <si>
+    <t>Implementación de middlewares dedicados a microservicios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF 5.3 </t>
+  </si>
+  <si>
+    <t>Almacenaje de la localización de los microservicios</t>
+  </si>
+  <si>
+    <t>RF 5.4</t>
+  </si>
+  <si>
+    <t>Creación bus eventos lógicos</t>
+  </si>
+  <si>
+    <t>RF 6</t>
+  </si>
+  <si>
+    <t>Lógica de peticiones a los microservicios</t>
+  </si>
+  <si>
+    <t>RF 6.1</t>
+  </si>
+  <si>
+    <t>Rf 6.2</t>
+  </si>
+  <si>
+    <t>Limitar contenedores de petición</t>
+  </si>
+  <si>
+    <t>Monitorización de los microservicios y conexión vía HTTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se indica cómo se van a presentar los datos y el diseño de interfaz apropiado de la aplicación </t>
+  </si>
+  <si>
+    <t>Se debe aplicar un desarrollo responsive para una correcta visualización indiferentemente de la resolución de pantalla del dispositivo</t>
+  </si>
+  <si>
+    <t>Diseñar visualmente el acceso a la funcionalidad de la aplicación</t>
+  </si>
+  <si>
+    <t>Realizar correcta conexión a módulos externos gráficos</t>
+  </si>
+  <si>
+    <t>Sistema de login y correcta trata de la información del usuario</t>
+  </si>
+  <si>
+    <t>Se indica las funcionalidades y requisitos necesarios a la hora de gestionar las compras por los usuarios</t>
+  </si>
+  <si>
+    <t>Sistema encargado de analizar las preferencias a los usuarios de la aplicación</t>
+  </si>
+  <si>
+    <t>Correcta conexión a la plataforma de pago suministrada por la entidad</t>
+  </si>
+  <si>
+    <t>Implementar conexión segura para los métodos de pago</t>
+  </si>
+  <si>
+    <t>Creación de lógica en la mensajería para los usuarios, tanto en la trata de los productos, como información y contacto.</t>
+  </si>
+  <si>
+    <t>Encargado de la realización correcta de las devoluciones al cliente así como actualizar los datos con los microservicios de análisis.</t>
+  </si>
+  <si>
+    <t>Bases de datos encargadas de la persistencia de los datos necesarios por la aplicación para un correcto funcionamiento</t>
+  </si>
+  <si>
+    <t>Implementar correctas peticiones de los datos y suministrarlas de forma correcta a la parte visual de la aplicación</t>
+  </si>
+  <si>
+    <t>Creación de sistema encargado del análisis de los datos pertinentes almacenados en las BBDD para su posterior utilización o almacenaje</t>
+  </si>
+  <si>
+    <t>Middleware encargado de suministrar la información recogida en las peticiones para su correcta impresión en la aplicación</t>
+  </si>
+  <si>
+    <t>Encargado de suministrar los datos intercambiados por el sistema de mensajería entre el módulo de envío y de recibo en el sistema</t>
+  </si>
+  <si>
+    <t>Se indica el cambio de arquitectura a microservicios y puntos importantes a tratar</t>
+  </si>
+  <si>
+    <t>Aplicar protocolo REST para las funcionalidades del sistema y AMQP para el sistema de mensajería</t>
+  </si>
+  <si>
+    <t>Encargados de suministrar la información entre los distintos microservicios</t>
+  </si>
+  <si>
+    <t>Se creará una base de datos en MongoDB para almacenar la localización de la empresa</t>
+  </si>
+  <si>
+    <t>Se indica parte de la lógica analizada en el análisis de requisitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es la encargada de gestionar la coherencia entre las BBDD de los dintintos microservicios </t>
+  </si>
+  <si>
+    <t>Se limitará el número de intentos de compra a 5 para un correcto funcionamiento del sistema</t>
+  </si>
+  <si>
+    <t>Las comunicaciones serán via HTTP aplicando un componente Gateway para la monitorización de los microservicios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,14 +275,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,17 +647,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B8DFF6-68CF-4A92-B1DD-176672BA48B9}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="83.140625" customWidth="1"/>
-    <col min="3" max="3" width="63.85546875" customWidth="1"/>
+    <col min="3" max="3" width="121.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -579,42 +676,54 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -622,47 +731,65 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,58 +797,142 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="C18" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>8</v>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -732,6 +943,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006B00CD7589661347BD30044987EB18D1" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d3ec35e342fe4c95b395da9c9ed78249">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="98a9d55a-186b-407a-bb73-7bfa550acc52" xmlns:ns4="fc236d73-5fd8-4be5-bb8c-47101c5fef16" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="721b09c0092a2918dc92605d89447c28" ns3:_="" ns4:_="">
     <xsd:import namespace="98a9d55a-186b-407a-bb73-7bfa550acc52"/>
@@ -928,22 +1154,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9FF960-936D-4279-A452-CBD31270A835}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1361D65B-B90C-4E3F-B3D1-33E79A27A039}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="98a9d55a-186b-407a-bb73-7bfa550acc52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fc236d73-5fd8-4be5-bb8c-47101c5fef16"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49FD389D-91FC-4F3D-8436-390C4B33D9CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -960,29 +1196,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9FF960-936D-4279-A452-CBD31270A835}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1361D65B-B90C-4E3F-B3D1-33E79A27A039}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="98a9d55a-186b-407a-bb73-7bfa550acc52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fc236d73-5fd8-4be5-bb8c-47101c5fef16"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Semana 1/Requisitos.xlsx
+++ b/Semana 1/Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiked\Documents\DAS\Semana 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4895CD-02E3-437F-88BE-A3C36F5A0489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE55B1-273B-4F03-8BA8-025905B5751E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2715" windowWidth="29040" windowHeight="15840" xr2:uid="{A32D6C42-F192-421A-935C-E33AD48D75B6}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Acceso a la plataforma por usuario</t>
   </si>
   <si>
-    <t xml:space="preserve">Sistema de base de datos </t>
-  </si>
-  <si>
     <t>RF3.1</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>Las comunicaciones serán via HTTP aplicando un componente Gateway para la monitorización de los microservicios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lógica de dominio </t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,10 +775,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,43 +797,43 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,98 +841,98 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="C21" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="C22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -943,18 +943,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1155,14 +1155,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9FF960-936D-4279-A452-CBD31270A835}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1361D65B-B90C-4E3F-B3D1-33E79A27A039}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1175,6 +1167,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="fc236d73-5fd8-4be5-bb8c-47101c5fef16"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9FF960-936D-4279-A452-CBD31270A835}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Semana 1/Requisitos.xlsx
+++ b/Semana 1/Requisitos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiked\Documents\DAS\Semana 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CE55B1-273B-4F03-8BA8-025905B5751E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6987EB-0F2E-4077-A5E5-CCEEBFE5A5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2715" windowWidth="29040" windowHeight="15840" xr2:uid="{A32D6C42-F192-421A-935C-E33AD48D75B6}"/>
+    <workbookView xWindow="-28800" yWindow="2910" windowWidth="28800" windowHeight="15435" xr2:uid="{A32D6C42-F192-421A-935C-E33AD48D75B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Referencia</t>
   </si>
@@ -57,30 +57,15 @@
     <t>RF4</t>
   </si>
   <si>
-    <t xml:space="preserve"> Presentación de datos a usuario</t>
-  </si>
-  <si>
-    <t>Responsive para todo tipo de resoluciones</t>
-  </si>
-  <si>
     <t>RF1.1</t>
   </si>
   <si>
     <t>RF1.2</t>
   </si>
   <si>
-    <t>Gestión y control de los datos por pantalla</t>
-  </si>
-  <si>
     <t>RF1.3</t>
   </si>
   <si>
-    <t>Control de acceso a módulos externos</t>
-  </si>
-  <si>
-    <t>RF1.4</t>
-  </si>
-  <si>
     <t>Control y gestión de compras de clientes</t>
   </si>
   <si>
@@ -111,9 +96,6 @@
     <t>Módulo que permita la realización de devoluciones al cliente</t>
   </si>
   <si>
-    <t>Acceso a la plataforma por usuario</t>
-  </si>
-  <si>
     <t>RF3.1</t>
   </si>
   <si>
@@ -186,21 +168,6 @@
     <t>Monitorización de los microservicios y conexión vía HTTP</t>
   </si>
   <si>
-    <t xml:space="preserve">Se indica cómo se van a presentar los datos y el diseño de interfaz apropiado de la aplicación </t>
-  </si>
-  <si>
-    <t>Se debe aplicar un desarrollo responsive para una correcta visualización indiferentemente de la resolución de pantalla del dispositivo</t>
-  </si>
-  <si>
-    <t>Diseñar visualmente el acceso a la funcionalidad de la aplicación</t>
-  </si>
-  <si>
-    <t>Realizar correcta conexión a módulos externos gráficos</t>
-  </si>
-  <si>
-    <t>Sistema de login y correcta trata de la información del usuario</t>
-  </si>
-  <si>
     <t>Se indica las funcionalidades y requisitos necesarios a la hora de gestionar las compras por los usuarios</t>
   </si>
   <si>
@@ -259,6 +226,30 @@
   </si>
   <si>
     <t xml:space="preserve">Lógica de dominio </t>
+  </si>
+  <si>
+    <t>Elección de arquitectura</t>
+  </si>
+  <si>
+    <t>Se indicará la elección de la arquitectura a tomar para el cliente</t>
+  </si>
+  <si>
+    <t>Arquitectura de microservicios</t>
+  </si>
+  <si>
+    <t>Se toma la Arquitectura basada en Microservicios como elección en el proyecto.</t>
+  </si>
+  <si>
+    <t>Migración de la nueva arquitectura a la nueva</t>
+  </si>
+  <si>
+    <t>Se migrará todos los módulos de la aplicación para que estén basados en una arquitectura por microservicios</t>
+  </si>
+  <si>
+    <t>Mejorar la flexibilidad y escalabilidad</t>
+  </si>
+  <si>
+    <t>Realizar una optimización en la bases de datos y realizar buenas praxis en la utilización de la aquitectura</t>
   </si>
 </sst>
 </file>
@@ -647,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B8DFF6-68CF-4A92-B1DD-176672BA48B9}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,263 +667,252 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
+      <c r="C14" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>71</v>
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -943,18 +923,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1155,6 +1135,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9FF960-936D-4279-A452-CBD31270A835}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1361D65B-B90C-4E3F-B3D1-33E79A27A039}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1167,14 +1155,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="fc236d73-5fd8-4be5-bb8c-47101c5fef16"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9FF960-936D-4279-A452-CBD31270A835}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Semana 1/Requisitos.xlsx
+++ b/Semana 1/Requisitos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiked\Documents\DAS\Semana 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6987EB-0F2E-4077-A5E5-CCEEBFE5A5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A776571-7481-4106-A0EA-5DCDFA5B8D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2910" windowWidth="28800" windowHeight="15435" xr2:uid="{A32D6C42-F192-421A-935C-E33AD48D75B6}"/>
+    <workbookView xWindow="-28920" yWindow="2715" windowWidth="29040" windowHeight="15840" xr2:uid="{A32D6C42-F192-421A-935C-E33AD48D75B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -45,189 +45,15 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>RF1</t>
-  </si>
-  <si>
-    <t>RF2</t>
-  </si>
-  <si>
-    <t>RF3</t>
-  </si>
-  <si>
-    <t>RF4</t>
-  </si>
-  <si>
-    <t>RF1.1</t>
-  </si>
-  <si>
-    <t>RF1.2</t>
-  </si>
-  <si>
-    <t>RF1.3</t>
-  </si>
-  <si>
-    <t>Control y gestión de compras de clientes</t>
-  </si>
-  <si>
     <t>RF2.1</t>
   </si>
   <si>
     <t>RF2.2</t>
   </si>
   <si>
-    <t>Gestión de preferencias para compras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceso a sistemas de pago </t>
-  </si>
-  <si>
-    <t>RF2.2.1</t>
-  </si>
-  <si>
-    <t>El sistema debe conectarse correctamente con el servidor para realizamiento de pagos</t>
-  </si>
-  <si>
-    <t>RF2.3</t>
-  </si>
-  <si>
-    <t>RF2.4</t>
-  </si>
-  <si>
-    <t>Módulo que permita la realización de devoluciones al cliente</t>
-  </si>
-  <si>
-    <t>RF3.1</t>
-  </si>
-  <si>
-    <t>Acceso a información de los datos, cargando los referentes al correspondiente usuario</t>
-  </si>
-  <si>
-    <t>RF3.2</t>
-  </si>
-  <si>
-    <t>RF3.3</t>
-  </si>
-  <si>
-    <t>Carga de datos en las interfaces tras el acceso a los mismos</t>
-  </si>
-  <si>
-    <t>Middleware independiente para correcta funcionalidad de sistema de mensajería</t>
-  </si>
-  <si>
-    <t>Sistema de análisis de datos y métricas para la empresa</t>
-  </si>
-  <si>
-    <t>Sistema de mensajería para comunicación con clientes</t>
-  </si>
-  <si>
-    <t>RF5</t>
-  </si>
-  <si>
-    <t>Implementación de microservicios</t>
-  </si>
-  <si>
-    <t>RF 5.1</t>
-  </si>
-  <si>
-    <t>RF 5.2</t>
-  </si>
-  <si>
-    <t>Implementación de protocolo REST y AMQP</t>
-  </si>
-  <si>
-    <t>Implementación de middlewares dedicados a microservicios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF 5.3 </t>
-  </si>
-  <si>
-    <t>Almacenaje de la localización de los microservicios</t>
-  </si>
-  <si>
-    <t>RF 5.4</t>
-  </si>
-  <si>
-    <t>Creación bus eventos lógicos</t>
-  </si>
-  <si>
     <t>RF 6</t>
   </si>
   <si>
-    <t>Lógica de peticiones a los microservicios</t>
-  </si>
-  <si>
-    <t>RF 6.1</t>
-  </si>
-  <si>
-    <t>Rf 6.2</t>
-  </si>
-  <si>
-    <t>Limitar contenedores de petición</t>
-  </si>
-  <si>
-    <t>Monitorización de los microservicios y conexión vía HTTP</t>
-  </si>
-  <si>
-    <t>Se indica las funcionalidades y requisitos necesarios a la hora de gestionar las compras por los usuarios</t>
-  </si>
-  <si>
-    <t>Sistema encargado de analizar las preferencias a los usuarios de la aplicación</t>
-  </si>
-  <si>
-    <t>Correcta conexión a la plataforma de pago suministrada por la entidad</t>
-  </si>
-  <si>
-    <t>Implementar conexión segura para los métodos de pago</t>
-  </si>
-  <si>
-    <t>Creación de lógica en la mensajería para los usuarios, tanto en la trata de los productos, como información y contacto.</t>
-  </si>
-  <si>
-    <t>Encargado de la realización correcta de las devoluciones al cliente así como actualizar los datos con los microservicios de análisis.</t>
-  </si>
-  <si>
-    <t>Bases de datos encargadas de la persistencia de los datos necesarios por la aplicación para un correcto funcionamiento</t>
-  </si>
-  <si>
-    <t>Implementar correctas peticiones de los datos y suministrarlas de forma correcta a la parte visual de la aplicación</t>
-  </si>
-  <si>
-    <t>Creación de sistema encargado del análisis de los datos pertinentes almacenados en las BBDD para su posterior utilización o almacenaje</t>
-  </si>
-  <si>
-    <t>Middleware encargado de suministrar la información recogida en las peticiones para su correcta impresión en la aplicación</t>
-  </si>
-  <si>
-    <t>Encargado de suministrar los datos intercambiados por el sistema de mensajería entre el módulo de envío y de recibo en el sistema</t>
-  </si>
-  <si>
-    <t>Se indica el cambio de arquitectura a microservicios y puntos importantes a tratar</t>
-  </si>
-  <si>
-    <t>Aplicar protocolo REST para las funcionalidades del sistema y AMQP para el sistema de mensajería</t>
-  </si>
-  <si>
-    <t>Encargados de suministrar la información entre los distintos microservicios</t>
-  </si>
-  <si>
-    <t>Se creará una base de datos en MongoDB para almacenar la localización de la empresa</t>
-  </si>
-  <si>
-    <t>Se indica parte de la lógica analizada en el análisis de requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es la encargada de gestionar la coherencia entre las BBDD de los dintintos microservicios </t>
-  </si>
-  <si>
-    <t>Se limitará el número de intentos de compra a 5 para un correcto funcionamiento del sistema</t>
-  </si>
-  <si>
-    <t>Las comunicaciones serán via HTTP aplicando un componente Gateway para la monitorización de los microservicios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lógica de dominio </t>
-  </si>
-  <si>
     <t>Elección de arquitectura</t>
   </si>
   <si>
@@ -250,13 +76,187 @@
   </si>
   <si>
     <t>Realizar una optimización en la bases de datos y realizar buenas praxis en la utilización de la aquitectura</t>
+  </si>
+  <si>
+    <t>Control de interfaz de usuario</t>
+  </si>
+  <si>
+    <t>Consumo de servicios remotos</t>
+  </si>
+  <si>
+    <t>Módulo de pedidos y compras</t>
+  </si>
+  <si>
+    <t>Módulo detección de preferencias</t>
+  </si>
+  <si>
+    <t>Módulo de conexión a sistemas de pago</t>
+  </si>
+  <si>
+    <t>Módulo de mensajería a dispositivos móviles</t>
+  </si>
+  <si>
+    <t>Módulo de seguridad en compras</t>
+  </si>
+  <si>
+    <t>Módulo de devoluciones</t>
+  </si>
+  <si>
+    <t>Componentes lógica de negocio</t>
+  </si>
+  <si>
+    <t>Componentes de presentación</t>
+  </si>
+  <si>
+    <t>Lógica de acceso a bases de datos</t>
+  </si>
+  <si>
+    <t>RF 4</t>
+  </si>
+  <si>
+    <t>Sistema de mensajería por middelware independiente</t>
+  </si>
+  <si>
+    <t>RF 5</t>
+  </si>
+  <si>
+    <t>RF 3.6</t>
+  </si>
+  <si>
+    <t>RF 3.5</t>
+  </si>
+  <si>
+    <t>RF 3.4</t>
+  </si>
+  <si>
+    <t>RF 3.3</t>
+  </si>
+  <si>
+    <t>RF 3.2</t>
+  </si>
+  <si>
+    <t>RF 3.1</t>
+  </si>
+  <si>
+    <t>RF 3</t>
+  </si>
+  <si>
+    <t>RF 2</t>
+  </si>
+  <si>
+    <t>RF 1</t>
+  </si>
+  <si>
+    <t>RF 1.1</t>
+  </si>
+  <si>
+    <t>RF 1.2</t>
+  </si>
+  <si>
+    <t>RF 1.3</t>
+  </si>
+  <si>
+    <t>Integración asíncrona de los microservicios</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RF 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación nueva base datos </t>
+  </si>
+  <si>
+    <t>RF 8</t>
+  </si>
+  <si>
+    <t>Integración bus eventos lógicos</t>
+  </si>
+  <si>
+    <t>RF 9</t>
+  </si>
+  <si>
+    <t>Determinar número de contenedores</t>
+  </si>
+  <si>
+    <t>RF 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir vía de conexión </t>
+  </si>
+  <si>
+    <t>Definir comunicación  y monitorización de los microservicios</t>
+  </si>
+  <si>
+    <t>Conexión y microservicios</t>
+  </si>
+  <si>
+    <t>RF 10.1</t>
+  </si>
+  <si>
+    <t>RF 10.2</t>
+  </si>
+  <si>
+    <t>Responsables de la parte cliente</t>
+  </si>
+  <si>
+    <t>Se indicará como se controla la interfaz de usuario</t>
+  </si>
+  <si>
+    <t>Se indicará como controlar el consumo de servicios remotos</t>
+  </si>
+  <si>
+    <t>Responsable de la funcionalidad de la aplicación</t>
+  </si>
+  <si>
+    <t>Se indicará cómo realizar las compras y pedidos para usuario</t>
+  </si>
+  <si>
+    <t>Se indicará la información necesaria y trata correcta de la información de preferencias</t>
+  </si>
+  <si>
+    <t>Se indicará de que forma se realizarán los pagos y con que medios</t>
+  </si>
+  <si>
+    <t>Se indicará la forma de la mensajería a dispositivos móviles</t>
+  </si>
+  <si>
+    <t>Se indicará la seguridad en la que se basa la arquitectura</t>
+  </si>
+  <si>
+    <t>Se indicará como se realizaran las devoluciones para clientes</t>
+  </si>
+  <si>
+    <t>Son los componentes responsables para obtener acceso a las BBDD</t>
+  </si>
+  <si>
+    <t>Implementación de middleware único para mensajeria</t>
+  </si>
+  <si>
+    <t>Se implementará para soportar un mayor numero de compras y preferencias</t>
+  </si>
+  <si>
+    <t>Se creará para almacenar la localización de los microservicios</t>
+  </si>
+  <si>
+    <t>Para una correcta coherencia de los datos entre las distintas BBDD</t>
+  </si>
+  <si>
+    <t>Limitación de intentos de compra a 5 intentos</t>
+  </si>
+  <si>
+    <t>Definición de tipo de conexión a la aplicación y entre microservicios</t>
+  </si>
+  <si>
+    <t>Conexión a la aplicación</t>
+  </si>
+  <si>
+    <t>Conexión y monitorización de los microservicios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +266,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,6 +332,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B8DFF6-68CF-4A92-B1DD-176672BA48B9}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,256 +675,259 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -923,18 +937,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1135,14 +1149,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9FF960-936D-4279-A452-CBD31270A835}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1361D65B-B90C-4E3F-B3D1-33E79A27A039}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1155,6 +1161,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="fc236d73-5fd8-4be5-bb8c-47101c5fef16"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9FF960-936D-4279-A452-CBD31270A835}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Semana 1/Requisitos.xlsx
+++ b/Semana 1/Requisitos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiked\Documents\DAS\Semana 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A776571-7481-4106-A0EA-5DCDFA5B8D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9CB7BC-3C4F-4EEE-B8F7-14AE9E34070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2715" windowWidth="29040" windowHeight="15840" xr2:uid="{A32D6C42-F192-421A-935C-E33AD48D75B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A32D6C42-F192-421A-935C-E33AD48D75B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Se toma la Arquitectura basada en Microservicios como elección en el proyecto.</t>
   </si>
   <si>
-    <t>Migración de la nueva arquitectura a la nueva</t>
-  </si>
-  <si>
     <t>Se migrará todos los módulos de la aplicación para que estén basados en una arquitectura por microservicios</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>Conexión y monitorización de los microservicios</t>
+  </si>
+  <si>
+    <t>Migración de la antigua arquitectura a la nueva</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -697,35 +697,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -733,10 +733,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -744,109 +744,109 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -854,76 +854,76 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C21" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -937,18 +937,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1149,6 +1149,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9FF960-936D-4279-A452-CBD31270A835}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1361D65B-B90C-4E3F-B3D1-33E79A27A039}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1161,14 +1169,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="fc236d73-5fd8-4be5-bb8c-47101c5fef16"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9FF960-936D-4279-A452-CBD31270A835}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Semana 1/Requisitos.xlsx
+++ b/Semana 1/Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiked\Documents\DAS\Semana 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9CB7BC-3C4F-4EEE-B8F7-14AE9E34070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBF0A56-0056-44EA-855C-AB47F2680943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A32D6C42-F192-421A-935C-E33AD48D75B6}"/>
   </bookViews>
@@ -256,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,14 +266,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -332,7 +324,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -652,7 +644,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,18 +929,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1149,14 +1141,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9FF960-936D-4279-A452-CBD31270A835}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1361D65B-B90C-4E3F-B3D1-33E79A27A039}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1169,6 +1153,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="fc236d73-5fd8-4be5-bb8c-47101c5fef16"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9FF960-936D-4279-A452-CBD31270A835}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Semana 1/Requisitos.xlsx
+++ b/Semana 1/Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiked\Documents\DAS\Semana 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBF0A56-0056-44EA-855C-AB47F2680943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08AAA96-8128-4D5A-AF2E-18E8EEA902D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A32D6C42-F192-421A-935C-E33AD48D75B6}"/>
   </bookViews>
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,9 +324,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,7 +649,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,157 +670,157 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>61</v>
       </c>
     </row>
